--- a/xlsx/routes.xlsx
+++ b/xlsx/routes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-51200" yWindow="1240" windowWidth="51200" windowHeight="27120" tabRatio="600" firstSheet="13" activeTab="18" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11460" yWindow="1740" windowWidth="17700" windowHeight="20400" tabRatio="600" firstSheet="32" activeTab="40" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DiglettsCaveRoute2" sheetId="1" state="visible" r:id="rId1"/>
@@ -279,5282 +279,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="33.5" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="13"/>
-    <col width="40" customWidth="1" min="14" max="14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>text/Route18.asm</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>翻译区</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Gen1:JPN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>LGPE:CHS (Auto Match)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Gen1:JPN (Auto Match)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>LGPE:JPN (Auto Match)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>LGPE:ENG (Auto Match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>_Route18BattleText1::</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>_Route18BattleText1::</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I always check</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>每当发现这种草丛后，</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>每当发现这种草丛后，</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>こういう　くさむらを　みつけては</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>こういう　くさむらを　みつけては</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>I always check every grassy area like this for</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>every grassy area</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>我就会去里面找找</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>我就会去里面找找</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>あたらしい　ポケモン　いないか</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>あたらしい　ポケモン　いないか</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>new Pokémon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>for new #MON.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>有没有新的宝可梦！</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>さがしてるのさ!</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>有没有新的宝可梦！</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>さがしてるのさ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText1::</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText1::</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tch!</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>哎呀……！</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>あう……！</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>这里是训练家学校。</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ここは　ぜんこくの　かくとうか　が</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ここは　トレーナーズスクール</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Trainers’ School:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>好好学习，天天向上！</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>あつまる　どうじょう　だ!　オスッ!</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>まなびや　で　まなべや！</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Get Schooled in School!</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ゲ４だら?たぐゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText1::</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText1::</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Udef</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>I wish I had a</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>I wish I had a</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>じてんしゃ　もって　いたら</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>我好想有一只</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>じてんしゃ　もって　いたら</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>のれる　ポケモン　もって　いたら</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>I wish I knew how to ride a Pokémon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BIKE!</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>BIKE!</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ぼくも　サイクりング　したい</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>可以乘坐的宝可梦，</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>ぼくも　サイクりング　したい</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>ぼくも　ライド　したい</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>然后乘着它去兜风。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>_Route18BattleText2::</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>_Route18BattleText2::</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Kurukkoo!</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>咕咕……！</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>咕咕……！</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>クルック…ッ!</t>
-        </is>
-      </c>
-      <c r="L18" s="1" t="inlineStr">
-        <is>
-          <t>クルックッ……！</t>
-        </is>
-      </c>
-      <c r="M18" s="1" t="inlineStr">
-        <is>
-          <t>Kurukkoo!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>How do you like</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>怎么样？我的指笛！</t>
-        </is>
-      </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>怎么样？我的指笛！</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>どう?　ぼくの　ゆびぶえ!</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>どう？　ぼくの　ゆびぶえ！</t>
-        </is>
-      </c>
-      <c r="M19" s="1" t="inlineStr">
-        <is>
-          <t>How do you like my birdcall?</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>my bird call?</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText2::</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText2::</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>这就是</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>きじも　なかずば</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>唔……！</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>む…!</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>む……！</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>I had this feeling...</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>had to bug you!</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>所谓的祸从口出么。</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>うたれまいに　って　ことか</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>我预感你我之间必有一战！</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>きみと　ぼくは　たたかう　よかん</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>きみと　ぼくは　たたかう　よかん</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>I knew I had to battle you!</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText2::</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText2::</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Udef</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>I also collect sea</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>I also collect sea</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>うみが　ちかい　から</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>这里陈列着宝可梦的杂志！</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>『『ウ『ウ『ウ『ウ『</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>ポケモンざっしが　ならんでる！</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>There are Pokémon magazines on the shelves.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>#MON on</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>#MON on</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>しゅうまつは　うみどり　ポケモン</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>weekends!</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>weekends!</t>
-        </is>
-      </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>つかまえに　くるよ</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>……宝可梦手册</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>……ポケモンてちょう</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>And Pokémon notebooks...</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>……宝可梦图表</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>……ポケモングラフ</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>And Pokémon graphs, too!</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>_Route18BattleText3::</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>_Route18BattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>This is my turf!</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>这一带是我们的地盘！</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>这一带是我们的地盘！</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>この　あたりは</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>この　あたりは</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="inlineStr">
-        <is>
-          <t>This is my turf!</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Get out of here!</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>你给我离远点！</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>你给我离远点！</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>ぼくらの　なわばりだ!</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>ぼくらの　なわばりだ！</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="inlineStr">
-        <is>
-          <t>Get out of here!</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>ちかよらないで　ほしいな!</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="n"/>
-    </row>
-    <row r="38">
-      <c r="K38" s="1" t="n"/>
-      <c r="L38" s="1" t="inlineStr">
-        <is>
-          <t>ちかよらないで　ほしいな！</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText3::</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>_Route18EndBattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Darn!</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>……唔！</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>…　ふう!</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>这里是训练家学校。</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ここは　ぜんこくの　かくとうか　が</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ここは　トレーナーズスクール</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Trainers’ School:</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>好好学习，天天向上！</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>あつまる　どうじょう　だ!　オスッ!</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>まなびや　で　まなべや！</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Get Schooled in School!</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ゲ４だら?たぐゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText3::</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>_Route18AfterBattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>This is my fave</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>这里是我捕捉自己</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>这里是我捕捉自己</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>だれでも　おきにいりの</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>だれでも　おきにいりの</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>This is my fave area for catching Pokémon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>#MON hunting</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>喜爱的宝可梦的地方！</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>喜爱的宝可梦的地方！</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
-        <is>
-          <t>ポケモンを　とりに　いく</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>ポケモンを　とりに　いく</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>area!</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t>ばしょが　あるだろ!</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="n"/>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>ばしょが　あるだろ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>_Route18Text4::</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>_Route18Text4::</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>ROUTE 18</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>这里是１８号道路</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ここは　１８ばん　どうろ</t>
-        </is>
-      </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>这里是18号道路</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
-        <is>
-          <t>ここは　こどもの</t>
-        </is>
-      </c>
-      <c r="L50" s="1" t="inlineStr">
-        <is>
-          <t>ここは　１８ばんどうろ</t>
-        </is>
-      </c>
-      <c r="M50" s="1" t="inlineStr">
-        <is>
-          <t>Route 18</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CELADON CITY -</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>玉虹市　……　浅红市</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>タマムシ　…　セキチク</t>
-        </is>
-      </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>玉虹市　……　浅红市</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
-        <is>
-          <t>くる　ところ　じゃない!</t>
-        </is>
-      </c>
-      <c r="L51" s="1" t="inlineStr">
-        <is>
-          <t>タマムシシティ　……　セキチクシティ</t>
-        </is>
-      </c>
-      <c r="M51" s="1" t="inlineStr">
-        <is>
-          <t>(Celadon City ⇄ Fuchsia City)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FUCHSIA CITY</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="54"/>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>_Route18Text5::</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>_Route18Text5::</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CYCLING ROAD</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>CYCLING ROAD</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>ここは　サイクりング　ロード</t>
-        </is>
-      </c>
-      <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t>招式学习器应有尽有！</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
-        <is>
-          <t>が　でてきた!</t>
-        </is>
-      </c>
-      <c r="L56" s="1" t="inlineStr">
-        <is>
-          <t>べんり　が　いっぱい！</t>
-        </is>
-      </c>
-      <c r="M56" s="1" t="inlineStr">
-        <is>
-          <t>“‘Loads and loads of TMs!’</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>No pedestrians</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>No pedestrians</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>あるいての　つうこう　きんし</t>
-        </is>
-      </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t>２楼……　训练家广场</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="n"/>
-      <c r="L57" s="1" t="inlineStr">
-        <is>
-          <t>２かい……　トレーナーズ・マーケット</t>
-        </is>
-      </c>
-      <c r="M57" s="1" t="inlineStr">
-        <is>
-          <t>2F: Trainers’ Market”</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>permitted!</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>permitted!</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M160"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="34" customWidth="1" min="10" max="13"/>
-    <col width="40" customWidth="1" min="14" max="14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>text/Route19.asm</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>翻译区</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Gen1:JPN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>LGPE:CHS (Auto Match)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Gen1:JPN (Auto Match)</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>LGPE:JPN (Auto Match)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>LGPE:ENG (Auto Match)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>_Route19BattleText1::</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>_Route19BattleText1::</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Have to warm up</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>下水前得做热身运动！</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>下水前得做热身运动！</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>みずに　はいる　まえに</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>みずに　はいる　まえに</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>I have to exercise and warm up before going out</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>before my swim!</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>じゅんび　たいそう　しなきゃ!</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>じゅんび　たいそう　しなきゃ！</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>for a swim.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="n"/>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText1::</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText1::</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>运动结束！</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>たいそう　おわり!</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>たいそう　おわり！</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>All warmed up!</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>warmed up!</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>运动结束！</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText1::</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText1::</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Thanks, kid! I'm</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>好！在你的帮助下，</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>好！在你的帮助下，</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>よしッ!　おかげで</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>よしッ！　おかげで</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>Thanks, kid!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ready for a swim!</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>我的热身运动</t>
-        </is>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>我的热身运动很好地完成了！</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>いい　うんどうに　なった!</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>いい　うんどうに　なった！</t>
-        </is>
-      </c>
-      <c r="M14" s="1" t="inlineStr">
-        <is>
-          <t>I’m ready for a swim.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>很好地完成了！</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>_Route19BattleText2::</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>_Route19BattleText2::</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Wait! You'll have</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>等等，别慌！要是</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>等等，别慌！</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>まて　あわてるな!</t>
-        </is>
-      </c>
-      <c r="L18" s="1" t="inlineStr">
-        <is>
-          <t>まて　あわてるな！</t>
-        </is>
-      </c>
-      <c r="M18" s="1" t="inlineStr">
-        <is>
-          <t>Wait! Slow down!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>a heart attack!</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>心脏麻痹了该怎么办啊！</t>
-        </is>
-      </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>要是心脏麻痹了该怎么办啊！</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>しんぞう　マヒに　なったら　どうする</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>しんぞう　マヒに　なったら　どうする</t>
-        </is>
-      </c>
-      <c r="M19" s="1" t="inlineStr">
-        <is>
-          <t>You’ll have a heart attack!</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="n"/>
-    </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText2::</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText2::</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ooh!</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>唔，好冷。</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>うー　さむい</t>
-        </is>
-      </c>
-      <c r="L23" s="1" t="inlineStr">
-        <is>
-          <t>うー　さむい</t>
-        </is>
-      </c>
-      <c r="M23" s="1" t="inlineStr">
-        <is>
-          <t>Ooh!</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>That's chilly!</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>唔，好冷。</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="n"/>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>That’s chilly!</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText2::</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText2::</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Watch out for</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>游泳时要小心，</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>小心！</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ズバットの</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>ズバットの</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Beware! Zubat is a bloodsucker!</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>TENTACOOL!</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>别被玛瑙水母蛰了。</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>メノクラゲに　さされないよう</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>超音蝠会吸血！</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>きゅうけつ　こうげきに　ちゅうい!</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>きゅうけつ　こうげきに　ちゅうい！</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Watch out for its Leech Life move!</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>きを　つけて　およげよ!</t>
-        </is>
-      </c>
-    </row>
-    <row r="31"/>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>_Route19BattleText3::</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>_Route19BattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>I love swimming!</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>I love swimming!</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>およぐの　だいすき!</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>如果你愿意，</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>そうか…!　また　きて　ください</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>よければ</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="inlineStr">
-        <is>
-          <t>I would love it if you could keep an eye on</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>What about you?</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>What about you?</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>…　きみは　どうなの?</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>我以后还会拜托你的。</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>また　よろしくね</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="inlineStr">
-        <is>
-          <t>Slowpoke again sometime.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText3::</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Belly</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Belly</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>ドッポーン!</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>顽皮雷弹！那里要用撞击！</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ヤドラン!　そこで　パーンチ!</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>マルマイン！　そこで　たいあたりっ！</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Electrode! Use Tackle! Now!</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>flop!</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>flop!</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>给你跪了……又失败！</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>…　がっくし　また　ダメ!</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>……がっくし　また　ダメ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>D’aww... Failed again?</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText3::</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText3::</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>I can beat #MON</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>I can beat #MON</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>およぎ　なら</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>如果比拼的是关于宝可梦的知识，</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ポケモンの　ちしき　だったら</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ポケモンの　ちしき　だったら</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>I’m pretty sure I can still beat you when it comes</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>at swimming!</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>at swimming!</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>うみの　ポケモンにも　まけない!</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>我是不会输给你的！</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ぼくは　まけないと　おもうぞ!</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ぼくは　まけないと　おもうぞ！</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>to knowledge about Pokémon!</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>_Route19BattleText4::</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>_Route19BattleText4::</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>What's beyond the</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>水平线的那一边……</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>水平线的那一边……</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>すいへいせんの　むこう</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>すいへいせんの　むこう</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>What’s beyond the horizon?</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>horizon?</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>会有什么呢？</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>会有什么呢？</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>…　なにが　あるんだろ?</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>……なにが　あるんだろ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="n"/>
-    </row>
-    <row r="51"/>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText4::</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText4::</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Glub!</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>这里是训练家学校。</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ここは　ぜんこくの　かくとうか　が</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ここは　トレーナーズスクール</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Trainers’ School:</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>哎呀呀……</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>好好学习，天天向上！</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>あつまる　どうじょう　だ!　オスッ!</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>まなびや　で　まなべや！</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Get Schooled in School!</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ゲ４だら?たぐゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText4::</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText4::</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>I see a couple of</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>……</t>
-        </is>
-      </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t>……我看到那边有几座岛！</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
-        <is>
-          <t>…　むこうに</t>
-        </is>
-      </c>
-      <c r="L57" s="1" t="inlineStr">
-        <is>
-          <t>……むこうに</t>
-        </is>
-      </c>
-      <c r="M57" s="1" t="inlineStr">
-        <is>
-          <t>I see a couple of islands over yonder!</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>islands!</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>我看到那边有几座岛！</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
-        <is>
-          <t>いくつか　しまが　みえるぞ!</t>
-        </is>
-      </c>
-      <c r="L58" s="1" t="inlineStr">
-        <is>
-          <t>いくつか　しまが　みえるぞ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>_Route19BattleText5::</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>_Route19BattleText5::</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>I tried diving</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>之前……我曾想</t>
-        </is>
-      </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>之前……我曾想潜入海中捕捉</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t>もぐって…　うみ　ポケモン</t>
-        </is>
-      </c>
-      <c r="L62" s="1" t="inlineStr">
-        <is>
-          <t>もぐって……　うみポケモン</t>
-        </is>
-      </c>
-      <c r="M62" s="1" t="inlineStr">
-        <is>
-          <t>I tried diving for Pokémon from the sea,</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>for #MON, but</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>潜入海中捕捉海洋宝可梦，</t>
-        </is>
-      </c>
-      <c r="J63" s="1" t="inlineStr">
-        <is>
-          <t>海洋宝可梦，不过好像不行！</t>
-        </is>
-      </c>
-      <c r="K63" s="1" t="inlineStr">
-        <is>
-          <t>とろうとしたけど　だめ　みたいだ!</t>
-        </is>
-      </c>
-      <c r="L63" s="1" t="inlineStr">
-        <is>
-          <t>とろうとしたけど　だめ　みたいだ！</t>
-        </is>
-      </c>
-      <c r="M63" s="1" t="inlineStr">
-        <is>
-          <t>but it was a no-go.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>it was a no go!</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>不过好像不行！</t>
-        </is>
-      </c>
-      <c r="K64" s="1" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="66"/>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText5::</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText5::</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Help!</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>咳、咳！</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>ごぼ　ごぼッ</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>这里是训练家学校。</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ここは　ぜんこくの　かくとうか　が</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ここは　トレーナーズスクール</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Trainers’ School:</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>好好学习，天天向上！</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>あつまる　どうじょう　だ!　オスッ!</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>まなびや　で　まなべや！</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Get Schooled in School!</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ゲ４だら?たぐゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText5::</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText5::</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>You have to fish</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>You have to fish</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>うみの　ポケモンは　やっぱり</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>能看到肉眼看不见的宝可梦？</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる?</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる？</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Make the Invisible Plain to See!</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>for sea #MON!</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>for sea #MON!</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>つりで　とる　しか　ないや</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>新产品！西尔佛检视镜！</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>しん　せいひん!　シルフスコープ!</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>しんせいひん！　シルフスコープ！</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Get the new Silph Scope!     — Silph Co.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>…　シルフ　カンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>……西尔佛公司</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>……シルフカンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>_Route19BattleText6::</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>_Route19BattleText6::</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>I look at the</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>I look at the</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>あおい　うみを　みてれば</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>能看到肉眼看不见的宝可梦？</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる?</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる？</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Make the Invisible Plain to See!</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>sea to forget!</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>sea to forget!</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>いやな　ことも　わすれるぞ!</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>新产品！西尔佛检视镜！</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>しん　せいひん!　シルフスコープ!</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>しんせいひん！　シルフスコープ！</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Get the new Silph Scope!     — Silph Co.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>…　シルフ　カンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>……西尔佛公司</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>……シルフカンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText6::</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText6::</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Ooh!</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Ooh!</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>いやな　まけかただ</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>顽皮雷弹！那里要用撞击！</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ヤドラン!　そこで　パーンチ!</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>マルマイン！　そこで　たいあたりっ！</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Electrode! Use Tackle! Now!</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Traumatic!</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Traumatic!</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>给你跪了……又失败！</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>…　がっくし　また　ダメ!</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>……がっくし　また　ダメ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>D’aww... Failed again?</t>
-        </is>
-      </c>
-    </row>
-    <row r="85"/>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText6::</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText6::</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>I'm looking at the</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>I'm looking at the</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>あおい　うみを　みて…</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>能看到肉眼看不见的宝可梦？</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる?</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>みえない　ポケモンも　よくみえる？</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Make the Invisible Plain to See!</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>sea to forget!</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>sea to forget!</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>いやな　ことを　わすれよう</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>新产品！西尔佛检视镜！</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>しん　せいひん!　シルフスコープ!</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>しんせいひん！　シルフスコープ！</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Get the new Silph Scope!     — Silph Co.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>…　シルフ　カンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>……西尔佛公司</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>……シルフカンパニー</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>_Route19BattleText7::</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>_Route19BattleText7::</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Oh, I just love</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>哎呀！你的坐骑好棒啊。</t>
-        </is>
-      </c>
-      <c r="J92" s="1" t="inlineStr">
-        <is>
-          <t>哎呀！你的坐骑好棒啊。</t>
-        </is>
-      </c>
-      <c r="K92" s="1" t="inlineStr">
-        <is>
-          <t>ま!　いい　ものに　のってるわね</t>
-        </is>
-      </c>
-      <c r="L92" s="1" t="inlineStr">
-        <is>
-          <t>ま！　いいのに　のってるわね</t>
-        </is>
-      </c>
-      <c r="M92" s="1" t="inlineStr">
-        <is>
-          <t>Oh, I just love what you’re riding! You’ll give it</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>your ride! Can I</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>如果我赢了，它就归我了！</t>
-        </is>
-      </c>
-      <c r="J93" s="1" t="inlineStr">
-        <is>
-          <t>如果我赢了，它就归我了！</t>
-        </is>
-      </c>
-      <c r="K93" s="1" t="inlineStr">
-        <is>
-          <t>かったら　わたしに　ちょうだい!</t>
-        </is>
-      </c>
-      <c r="L93" s="1" t="inlineStr">
-        <is>
-          <t>かったら　わたしに　ちょうだい！</t>
-        </is>
-      </c>
-      <c r="M93" s="1" t="inlineStr">
-        <is>
-          <t>to me if I win, right?</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>have it if I win?</t>
-        </is>
-      </c>
-      <c r="K94" s="1" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText7::</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText7::</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Oh!</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>わたしの　まけか</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>……！</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>…!</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>……！</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Oh!</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>I lost!</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>我输了么。</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>我输了。</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>まいり　ましたわ</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>まいり　ましたわ</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>I concede defeat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>さすが</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>你真的很厉害……</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>とのがたは　おつよい　ですわ</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>ほんとうに　おつよい　かた……</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>You are remarkably strong.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText7::</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText7::</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>この　レインボーバッジ</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>It's still a long</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>这里离双子岛</t>
-        </is>
-      </c>
-      <c r="J103" s="1" t="inlineStr">
-        <is>
-          <t>这里离双子岛</t>
-        </is>
-      </c>
-      <c r="K103" s="1" t="inlineStr">
-        <is>
-          <t>ふたごじま　まで</t>
-        </is>
-      </c>
-      <c r="L103" s="1" t="inlineStr">
-        <is>
-          <t>ふたごじま　まで</t>
-        </is>
-      </c>
-      <c r="M103" s="1" t="inlineStr">
-        <is>
-          <t>It’s still a long way to the Seafoam Islands...</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>way to go to</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>还有一段距离呢……</t>
-        </is>
-      </c>
-      <c r="J104" s="1" t="inlineStr">
-        <is>
-          <t>还有一段距离呢……</t>
-        </is>
-      </c>
-      <c r="K104" s="1" t="inlineStr">
-        <is>
-          <t>まだ　ありそうだし…</t>
-        </is>
-      </c>
-      <c r="L104" s="1" t="inlineStr">
-        <is>
-          <t>まだ　ありそうだし……</t>
-        </is>
-      </c>
-      <c r="M104" s="1" t="inlineStr">
-        <is>
-          <t>I want to go back to Fuchsia City...</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SEAFOAM ISLANDS.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>好想回浅红市啊。</t>
-        </is>
-      </c>
-      <c r="J105" s="1" t="n"/>
-      <c r="K105" s="1" t="inlineStr">
-        <is>
-          <t>セキチクに　かえりたいわ</t>
-        </is>
-      </c>
-      <c r="L105" s="1" t="n"/>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="J106" s="1" t="inlineStr">
-        <is>
-          <t>好想回浅红市啊。</t>
-        </is>
-      </c>
-      <c r="K106" s="1" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-      <c r="L106" s="1" t="inlineStr">
-        <is>
-          <t>セキチクに　かえりたいわ</t>
-        </is>
-      </c>
-    </row>
-    <row r="107"/>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>_Route19BattleText8::</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>_Route19BattleText8::</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Swimming's great!</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>我很喜欢游泳，</t>
-        </is>
-      </c>
-      <c r="J109" s="1" t="inlineStr">
-        <is>
-          <t>我很喜欢游泳，</t>
-        </is>
-      </c>
-      <c r="K109" s="1" t="inlineStr">
-        <is>
-          <t>およぐの　すき　だけど</t>
-        </is>
-      </c>
-      <c r="L109" s="1" t="inlineStr">
-        <is>
-          <t>およぐの　すき　だけど</t>
-        </is>
-      </c>
-      <c r="M109" s="1" t="inlineStr">
-        <is>
-          <t>Swimming’s great!</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Sunburns aren't!</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>不喜欢日晒！</t>
-        </is>
-      </c>
-      <c r="J110" s="1" t="inlineStr">
-        <is>
-          <t>不喜欢日晒！</t>
-        </is>
-      </c>
-      <c r="K110" s="1" t="inlineStr">
-        <is>
-          <t>ひやけ　するのは　いやだわ!</t>
-        </is>
-      </c>
-      <c r="L110" s="1" t="inlineStr">
-        <is>
-          <t>ひやけ　するのは　いやだわ！</t>
-        </is>
-      </c>
-      <c r="M110" s="1" t="inlineStr">
-        <is>
-          <t>Sunburns aren’t!</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K111" s="1" t="n"/>
-    </row>
-    <row r="112"/>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText8::</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText8::</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Shocker!</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>头好晕……</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>くらくら…</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>这里是训练家学校。</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ここは　ぜんこくの　かくとうか　が</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>ここは　トレーナーズスクール</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Trainers’ School:</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>好好学习，天天向上！</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>あつまる　どうじょう　だ!　オスッ!</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>まなびや　で　まなべや！</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Get Schooled in School!</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ゲ４だら?たぐゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText8::</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText8::</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>My boy friend</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>我男友对我说，</t>
-        </is>
-      </c>
-      <c r="J118" s="1" t="inlineStr">
-        <is>
-          <t>我男友对我说，</t>
-        </is>
-      </c>
-      <c r="K118" s="1" t="inlineStr">
-        <is>
-          <t>かれが　ふたごじま　まで</t>
-        </is>
-      </c>
-      <c r="L118" s="1" t="inlineStr">
-        <is>
-          <t>かれが　ふたごじま　まで</t>
-        </is>
-      </c>
-      <c r="M118" s="1" t="inlineStr">
-        <is>
-          <t>My boyfriend wanted to swim to</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>wanted to swim to</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>他想要和我游到双子岛去。</t>
-        </is>
-      </c>
-      <c r="J119" s="1" t="inlineStr">
-        <is>
-          <t>他想要和我游到双子岛去。</t>
-        </is>
-      </c>
-      <c r="K119" s="1" t="inlineStr">
-        <is>
-          <t>およごうって　いったのよ</t>
-        </is>
-      </c>
-      <c r="L119" s="1" t="inlineStr">
-        <is>
-          <t>およごうって　いったのよ</t>
-        </is>
-      </c>
-      <c r="M119" s="1" t="inlineStr">
-        <is>
-          <t>the Seafoam Islands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>SEAFOAM ISLANDS.</t>
-        </is>
-      </c>
-      <c r="K120" s="1" t="inlineStr">
-        <is>
-          <t>ゲ</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="122"/>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>_Route19BattleText9::</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>_Route19BattleText9::</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Mod</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>These waters are</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>喂少年，你站住！</t>
-        </is>
-      </c>
-      <c r="J124" s="1" t="inlineStr">
-        <is>
-          <t>喂，你站住！</t>
-        </is>
-      </c>
-      <c r="K124" s="1" t="inlineStr">
-        <is>
-          <t>そこの　しょうねん!</t>
-        </is>
-      </c>
-      <c r="L124" s="1" t="inlineStr">
-        <is>
-          <t>そこの　きみ！</t>
-        </is>
-      </c>
-      <c r="M124" s="1" t="inlineStr">
-        <is>
-          <t>Ahoy there!</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>treacherous!</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>这片海洋很危险！</t>
-        </is>
-      </c>
-      <c r="J125" s="1" t="inlineStr">
-        <is>
-          <t>这片海洋很危险！</t>
-        </is>
-      </c>
-      <c r="K125" s="1" t="inlineStr">
-        <is>
-          <t>この　うみは　きけんだ!</t>
-        </is>
-      </c>
-      <c r="L125" s="1" t="inlineStr">
-        <is>
-          <t>この　うみは　きけんだ！</t>
-        </is>
-      </c>
-      <c r="M125" s="1" t="inlineStr">
-        <is>
-          <t>These waters are treacherous!</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K126" s="1" t="n"/>
-    </row>
-    <row r="127"/>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText9::</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText9::</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Ooh!</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>あぶない　めに　あった</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>顽皮雷弹！那里要用撞击！</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ヤドラン!　そこで　パーンチ!</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>マルマイン！　そこで　たいあたりっ！</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Electrode! Use Tackle! Now!</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Dangerous!</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>我刚才就遇到危险了。</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>给你跪了……又失败！</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>…　がっくし　また　ダメ!</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>……がっくし　また　ダメ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>D’aww... Failed again?</t>
-        </is>
-      </c>
-    </row>
-    <row r="132"/>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText9::</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText9::</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>I got a cramp!</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr">
-        <is>
-          <t>脚、脚扭到了！</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>あ　あしが　つった!</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>我正在和客户开会呢。</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>ぼくは　クラスで　いちばん　つよい!</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>おとくいさまと</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>I’m having a meeting with an important client.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" ht="18" customHeight="1">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Glub, glub...</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G135" s="10" t="inlineStr">
-        <is>
-          <t>咕嘟……咕嘟咕嘟……</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>ぶく…　ぶくぶく…</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>まいあさ　れんしゅうも　してるんだ!</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>かいぎ　してるんだ</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……你也想一起参加吗？</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>You want to join in?</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>……きみも　まざる？</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>_Route19BattleText10::</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>_Route19BattleText10::</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>I swam here, but</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="inlineStr">
-        <is>
-          <t>我是和大伙一起游到</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>みんなで　ここまで　およいで</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>虽然我体力不行，</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>おれは　たいりょく　ないけど</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>おれは　たいりょく　ないけど</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>I’m a lightweight, but I’m good with electricity!</t>
-        </is>
-      </c>
-    </row>
-    <row r="140" ht="18" customHeight="1">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>I'm tired.</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G140" s="10" t="inlineStr">
-        <is>
-          <t>这里来的……累死我了。</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>きたけど…　くたびれたわ</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>但我擅长使用电，</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>でんきの　あつかいを　かわれて</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>でんきの　あつかいを　かわれて</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>ここに　きたのだ!</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>That’s why I joined this Gym.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>所以加入了这个道馆！</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>ここに　きたのだ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText10::</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>_Route19EndBattleText10::</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>I'm</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>真是</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>つかれた…</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>您好！</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>ポケモン　ラボ　じっけんしつ</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>こんちわ！</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Hiya!</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>exhausted...</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>累死了……</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>我是宝可梦……！</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>ぼく　ポケモン……！</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>I’m a Pokémon...</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>……错！</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>……ちゃうわい！</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>N-no! I mean—!</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText10::</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>_Route19AfterBattleText10::</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>LAPRAS is so big,</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>如果要在</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>うみで　ポケモンに　のるなら</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>是招式学习器的小册子！</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>わざマシンの　パンフレットだ！</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>It’s a pamphlet on TMs, written by Silph Co.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>it must keep you</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>海上骑宝可梦的话，</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>ラプラスが　いいわ</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>…………</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　　　　　　　つかまえたかず@ゴ{5C}ふド@</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>……　……</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>dry on water.</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>那就得选择拉普拉斯才行。</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>おおきいから　ぬれない　もの</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>... ... ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>因为它的身体很大，</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>招式学习器</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>わざマシンは</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>骑在上面不容易弄湿。</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>一共有60种！</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>ぜんぶで　６０しゅるい！</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>It says there are 60 TMs, or Technical Machines,</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>_Route19Text11::</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>_Route19Text11::</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>in all!</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>SEA ROUTE 19</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>这里是１９号水路</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>ここは　１９ばん　すいどう</t>
-        </is>
-      </c>
-      <c r="J156" s="1" t="inlineStr">
-        <is>
-          <t>这里是19号水路</t>
-        </is>
-      </c>
-      <c r="K156" s="1" t="inlineStr">
-        <is>
-          <t>ここは　こどもの</t>
-        </is>
-      </c>
-      <c r="L156" s="1" t="inlineStr">
-        <is>
-          <t>ここは　１９ばんすいどう</t>
-        </is>
-      </c>
-      <c r="M156" s="1" t="inlineStr">
-        <is>
-          <t>Route 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>FUCHSIA CITY -</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>浅红市　……　双子岛</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>セキチク　…　ふたごじま</t>
-        </is>
-      </c>
-      <c r="J157" s="1" t="inlineStr">
-        <is>
-          <t>浅红市　……　双子岛</t>
-        </is>
-      </c>
-      <c r="K157" s="1" t="inlineStr">
-        <is>
-          <t>くる　ところ　じゃない!</t>
-        </is>
-      </c>
-      <c r="L157" s="1" t="inlineStr">
-        <is>
-          <t>セキチクシティ　……　ふたごじま</t>
-        </is>
-      </c>
-      <c r="M157" s="1" t="inlineStr">
-        <is>
-          <t>(Fuchsia City ⇄ Seafoam Islands)</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>cont</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>SEAFOAM ISLANDS</t>
-        </is>
-      </c>
-      <c r="K158" s="1" t="n"/>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6138,7 +862,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6467,7 +1191,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6570,7 +1294,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
@@ -6765,7 +1489,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J51" s="1" t="inlineStr">
@@ -7069,7 +1793,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -7522,7 +2246,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="G82" s="4" t="n"/>
@@ -7899,7 +2623,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="G97" s="4" t="n"/>
@@ -8632,7 +3356,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J128" s="1" t="inlineStr">
@@ -9072,7 +3796,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9643,7 +4367,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -9970,7 +4694,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -10298,7 +5022,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -10631,7 +5355,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I52" s="11" t="inlineStr">
@@ -10866,7 +5590,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J63" s="1" t="inlineStr">
@@ -11295,7 +6019,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -11679,7 +6403,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J100" s="1" t="inlineStr">
@@ -12391,7 +7115,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J131" s="1" t="inlineStr">
@@ -16880,7 +11604,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
@@ -17382,7 +12106,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -19085,7 +13809,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -19431,7 +14155,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
@@ -19747,7 +14471,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -20080,7 +14804,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J49" s="1" t="inlineStr">
@@ -20374,7 +15098,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -20868,7 +15592,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -21274,7 +15998,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -22081,7 +16805,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -22454,7 +17178,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -22803,7 +17527,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J75" s="1" t="inlineStr">
@@ -23212,7 +17936,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J93" s="1" t="inlineStr">
@@ -23583,7 +18307,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J110" s="1" t="inlineStr">
@@ -23667,7 +18391,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J115" s="1" t="inlineStr">
@@ -23942,7 +18666,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -24337,7 +19061,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="J144" s="1" t="inlineStr">
